--- a/Data/elephByCountry_master.xlsx
+++ b/Data/elephByCountry_master.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="460" windowWidth="20480" windowHeight="14660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,7 +364,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -384,6 +384,12 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -723,21 +729,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="J86" sqref="J86"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="2"/>
-    <col min="10" max="12" width="10.83203125" style="3"/>
-    <col min="13" max="13" width="10.83203125" style="5"/>
+    <col min="6" max="6" width="5.1640625" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="3"/>
+    <col min="12" max="12" width="10.83203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -819,11 +832,10 @@
         <v>406006</v>
       </c>
       <c r="M2" s="5">
-        <v>4.6261911317828738E-4</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4">
-        <f>M2-0.042</f>
-        <v>-4.1537380886821712E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -861,12 +873,12 @@
         <v>406946</v>
       </c>
       <c r="M3" s="5">
-        <f>RATE(5,,-L2,L3)</f>
-        <v>4.6261911317828738E-4</v>
+        <f>RATE(5,,-K2,K3)</f>
+        <v>1.1408629663339696</v>
       </c>
       <c r="N3" s="4">
-        <f t="shared" ref="N3:N16" si="0">M3-0.042</f>
-        <v>-4.1537380886821712E-2</v>
+        <f>M3/0.042</f>
+        <v>27.163403960332605</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -904,12 +916,12 @@
         <v>658620</v>
       </c>
       <c r="M4" s="5">
-        <f>RATE(6,,-L3,L4)</f>
-        <v>8.3551826209967317E-2</v>
+        <f>RATE(6,,-K3,K4)</f>
+        <v>8.2751185924203267E-15</v>
       </c>
       <c r="N4" s="4">
-        <f t="shared" si="0"/>
-        <v>4.1551826209967314E-2</v>
+        <f t="shared" ref="N4:N67" si="0">M4/0.042</f>
+        <v>1.970266331528649E-13</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -950,11 +962,11 @@
         <v>17314</v>
       </c>
       <c r="M5" s="5">
-        <v>0.51529999999999998</v>
+        <v>0</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="0"/>
-        <v>0.4733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -992,12 +1004,12 @@
         <v>13673</v>
       </c>
       <c r="M6" s="5">
-        <f>RATE(5,,-K5,K6)</f>
+        <f t="shared" ref="M6:M66" si="1">RATE(5,,-K5,K6)</f>
         <v>-5.291210880867657E-2</v>
       </c>
       <c r="N6" s="4">
         <f t="shared" si="0"/>
-        <v>-9.4912108808676565E-2</v>
+        <v>-1.2598121144922991</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1043,7 +1055,7 @@
       </c>
       <c r="N7" s="4">
         <f t="shared" si="0"/>
-        <v>3.9686301502857645E-2</v>
+        <v>1.9449119405442297</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1081,11 +1093,11 @@
         <v>99099</v>
       </c>
       <c r="M8" s="5">
-        <v>8.4400000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="N8" s="4">
         <f t="shared" si="0"/>
-        <v>4.24E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1126,12 +1138,12 @@
         <v>100265</v>
       </c>
       <c r="M9" s="5">
-        <f>RATE(5,,-K8,K9)</f>
+        <f t="shared" si="1"/>
         <v>4.8812770210190239E-2</v>
       </c>
       <c r="N9" s="4">
         <f t="shared" si="0"/>
-        <v>6.812770210190236E-3</v>
+        <v>1.1622088145283389</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -1177,7 +1189,7 @@
       </c>
       <c r="N10" s="4">
         <f t="shared" si="0"/>
-        <v>-4.241748472245787E-2</v>
+        <v>-9.9401124394730405E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -1218,11 +1230,11 @@
         <v>18834</v>
       </c>
       <c r="M11" s="5">
-        <v>1.4200000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
-        <v>-2.7800000000000002E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -1260,12 +1272,12 @@
         <v>19872</v>
       </c>
       <c r="M12" s="5">
-        <f>RATE(5,,-K11,K12)</f>
+        <f t="shared" si="1"/>
         <v>9.3313204230754024E-2</v>
       </c>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>5.1313204230754021E-2</v>
+        <v>2.2217429578750956</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -1311,7 +1323,7 @@
       </c>
       <c r="N13" s="4">
         <f t="shared" si="0"/>
-        <v>1.6338463488514442E-2</v>
+        <v>1.3890110354408201</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1349,12 +1361,11 @@
         <v>173765</v>
       </c>
       <c r="M14" s="5">
-        <f>RATE(4,,-15060,K14)</f>
-        <v>-0.23850478047772711</v>
+        <v>0</v>
       </c>
       <c r="N14" s="4">
         <f t="shared" si="0"/>
-        <v>-0.28050478047772709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1395,12 +1406,12 @@
         <v>118571</v>
       </c>
       <c r="M15" s="5">
-        <f>RATE(5,,-K14,K15)</f>
+        <f t="shared" si="1"/>
         <v>-0.29135132989073914</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" si="0"/>
-        <v>-0.33335132989073912</v>
+        <v>-6.9369364259699795</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -1441,12 +1452,12 @@
         <v>120510</v>
       </c>
       <c r="M16" s="5">
-        <f>RATE(6,,-K15,K16)</f>
+        <f t="shared" ref="M16:M79" si="2">RATE(6,,-K15,K16)</f>
         <v>0.38774219924145403</v>
       </c>
       <c r="N16" s="4">
         <f t="shared" si="0"/>
-        <v>0.34574219924145405</v>
+        <v>9.2319571247965246</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -1484,11 +1495,11 @@
         <v>217708</v>
       </c>
       <c r="M17" s="5">
-        <v>-0.19170000000000001</v>
+        <v>0</v>
       </c>
       <c r="N17" s="4">
-        <f t="shared" ref="N17:N31" si="1">M17-0.042</f>
-        <v>-0.23370000000000002</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -1529,12 +1540,12 @@
         <v>73435</v>
       </c>
       <c r="M18" s="5">
-        <f>RATE(5,,-K17,K18)</f>
+        <f t="shared" si="1"/>
         <v>-0.17045155227555966</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.21245155227555967</v>
+        <f t="shared" si="0"/>
+        <v>-4.0583702922752298</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -1575,12 +1586,12 @@
         <v>81039</v>
       </c>
       <c r="M19" s="5">
-        <f>RATE(6,,-K18,K19)</f>
+        <f t="shared" ref="M19" si="3">RATE(6,,-K18,K19)</f>
         <v>-0.14366684724697534</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.18566684724697535</v>
+        <f t="shared" si="0"/>
+        <v>-3.4206392201660796</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -1618,11 +1629,11 @@
         <v>263973</v>
       </c>
       <c r="M20" s="5">
-        <v>5.5899999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="1"/>
-        <v>1.3899999999999996E-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -1663,12 +1674,12 @@
         <v>149443</v>
       </c>
       <c r="M21" s="5">
-        <f>RATE(5,,-K20,K21)</f>
+        <f t="shared" si="1"/>
         <v>0.14327642450960418</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" si="1"/>
-        <v>0.10127642450960417</v>
+        <f t="shared" si="0"/>
+        <v>3.4113434407048611</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -1709,12 +1720,12 @@
         <v>149445</v>
       </c>
       <c r="M22" s="5">
-        <f>RATE(6,,-K21,K22)</f>
+        <f t="shared" ref="M22" si="4">RATE(6,,-K21,K22)</f>
         <v>-0.21458238742778887</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.25658238742778888</v>
+        <f t="shared" si="0"/>
+        <v>-5.1091044625664015</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -1752,12 +1763,11 @@
         <v>248361</v>
       </c>
       <c r="M23" s="5">
-        <f>((K23-0)/K23)/4</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" si="1"/>
-        <v>0.20799999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -1798,12 +1808,12 @@
         <v>135918</v>
       </c>
       <c r="M24" s="5">
-        <f>RATE(5,,-K23,K24)</f>
+        <f t="shared" si="1"/>
         <v>-1.4389886155324149E-2</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" si="1"/>
-        <v>-5.638988615532415E-2</v>
+        <f t="shared" si="0"/>
+        <v>-0.34261633703152733</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -1844,12 +1854,12 @@
         <v>140673</v>
       </c>
       <c r="M25" s="5">
-        <f>RATE(6,,-K24,K25)</f>
+        <f t="shared" si="2"/>
         <v>0.1218790011627012</v>
       </c>
       <c r="N25" s="4">
-        <f t="shared" si="1"/>
-        <v>7.9879001162701191E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.9018809800643139</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -1887,11 +1897,11 @@
         <v>34415</v>
       </c>
       <c r="M26" s="5">
-        <v>-6.1800000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="N26" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.1038</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -1932,12 +1942,12 @@
         <v>33985</v>
       </c>
       <c r="M27" s="5">
-        <f>RATE(5,,-K26,K27)</f>
+        <f t="shared" si="1"/>
         <v>0.40096625156178611</v>
       </c>
       <c r="N27" s="4">
-        <f t="shared" si="1"/>
-        <v>0.35896625156178613</v>
+        <f t="shared" si="0"/>
+        <v>9.5468155133758597</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -1978,12 +1988,12 @@
         <v>33986</v>
       </c>
       <c r="M28" s="5">
-        <f>RATE(6,,-K27,K28)</f>
+        <f t="shared" ref="M28" si="5">RATE(6,,-K27,K28)</f>
         <v>-6.9835403294474891E-3</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" si="1"/>
-        <v>-4.8983540329447489E-2</v>
+        <f t="shared" si="0"/>
+        <v>-0.16627476974874972</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -2021,12 +2031,11 @@
         <v>912105</v>
       </c>
       <c r="M29" s="5">
-        <f>RATE(4,,-29573,K29)</f>
-        <v>-0.23181755873524601</v>
+        <v>0</v>
       </c>
       <c r="N29" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.27381755873524599</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -2067,11 +2076,12 @@
         <v>263700</v>
       </c>
       <c r="M30" s="5">
-        <v>2E-3</v>
+        <f t="shared" si="1"/>
+        <v>2.0116995031807458E-3</v>
       </c>
       <c r="N30" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.04</v>
+        <f t="shared" si="0"/>
+        <v>4.7897607218589183E-2</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -2112,12 +2122,12 @@
         <v>274991</v>
       </c>
       <c r="M31" s="5">
-        <f>RATE(6,,-K30,K31)</f>
+        <f t="shared" ref="M31" si="6">RATE(6,,-K30,K31)</f>
         <v>-0.11113988430860913</v>
       </c>
       <c r="N31" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.15313988430860914</v>
+        <f t="shared" si="0"/>
+        <v>-2.6461877216335505</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -2158,8 +2168,8 @@
         <v>0</v>
       </c>
       <c r="N32" s="4">
-        <f t="shared" ref="N32:N45" si="2">M32-0.042</f>
-        <v>-4.2000000000000003E-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -2197,11 +2207,12 @@
         <v>15008</v>
       </c>
       <c r="M33" s="5">
-        <v>0</v>
+        <f>RATE(5,,-5,K33)</f>
+        <v>-0.99999940914518248</v>
       </c>
       <c r="N33" s="4">
-        <f t="shared" si="2"/>
-        <v>-4.2000000000000003E-2</v>
+        <f t="shared" si="0"/>
+        <v>-23.809509741551963</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -2243,8 +2254,8 @@
         <v>1.1106134959633531</v>
       </c>
       <c r="N34" s="4">
-        <f t="shared" si="2"/>
-        <v>1.0686134959633531</v>
+        <f t="shared" si="0"/>
+        <v>26.443178475317929</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -2285,11 +2296,11 @@
         <v>5275</v>
       </c>
       <c r="M35" s="5">
-        <v>1.5381</v>
+        <v>0</v>
       </c>
       <c r="N35" s="4">
-        <f t="shared" si="2"/>
-        <v>1.4961</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -2330,12 +2341,12 @@
         <v>6293</v>
       </c>
       <c r="M36" s="5">
-        <f>RATE(5,,-K35,K36)</f>
+        <f t="shared" si="1"/>
         <v>2.952910360412029E-2</v>
       </c>
       <c r="N36" s="4">
-        <f t="shared" si="2"/>
-        <v>-1.2470896395879713E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.70307389533619735</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -2376,11 +2387,12 @@
         <v>5275</v>
       </c>
       <c r="M37" s="5">
-        <v>0</v>
+        <f t="shared" ref="M37" si="7">RATE(6,,-K36,K37)</f>
+        <v>8.3526939061644697E-15</v>
       </c>
       <c r="N37" s="4">
-        <f t="shared" si="2"/>
-        <v>-4.2000000000000003E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.9887366443248736E-13</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -2418,12 +2430,11 @@
         <v>48170</v>
       </c>
       <c r="M38" s="5">
-        <f>RATE(4,,-321,K38)</f>
-        <v>5.3895471478746043E-2</v>
+        <v>0</v>
       </c>
       <c r="N38" s="4">
-        <f t="shared" si="2"/>
-        <v>1.1895471478746041E-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -2461,12 +2472,12 @@
         <v>38365</v>
       </c>
       <c r="M39" s="5">
-        <f>RATE(5,,-K38,K39)</f>
+        <f t="shared" si="1"/>
         <v>9.5211210996488008E-2</v>
       </c>
       <c r="N39" s="4">
-        <f t="shared" si="2"/>
-        <v>5.3211210996488005E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.2669335951544762</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -2507,12 +2518,12 @@
         <v>38417</v>
       </c>
       <c r="M40" s="5">
-        <f>RATE(6,,-K39,K40)</f>
+        <f t="shared" ref="M40" si="8">RATE(6,,-K39,K40)</f>
         <v>-0.29907020437651649</v>
       </c>
       <c r="N40" s="4">
-        <f t="shared" si="2"/>
-        <v>-0.34107020437651647</v>
+        <f t="shared" si="0"/>
+        <v>-7.1207191518218211</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -2550,11 +2561,11 @@
         <v>229594</v>
       </c>
       <c r="M41" s="5">
-        <v>2.0400000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="N41" s="4">
-        <f t="shared" si="2"/>
-        <v>-2.1600000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -2592,12 +2603,12 @@
         <v>218985</v>
       </c>
       <c r="M42" s="5">
-        <f>RATE(5,,-K41,K42)</f>
+        <f t="shared" si="1"/>
         <v>0.25163878639948906</v>
       </c>
       <c r="N42" s="4">
-        <f t="shared" si="2"/>
-        <v>0.20963878639948905</v>
+        <f t="shared" si="0"/>
+        <v>5.9913996761783102</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -2638,12 +2649,12 @@
         <v>220717</v>
       </c>
       <c r="M43" s="5">
-        <f>RATE(6,,-K42,K43)</f>
+        <f t="shared" si="2"/>
         <v>-0.12616035787395702</v>
       </c>
       <c r="N43" s="4">
-        <f t="shared" si="2"/>
-        <v>-0.16816035787395703</v>
+        <f t="shared" si="0"/>
+        <v>-3.0038180446180243</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -2684,11 +2695,11 @@
         <v>31519</v>
       </c>
       <c r="M44" s="5">
-        <v>2.3E-2</v>
+        <v>0</v>
       </c>
       <c r="N44" s="4">
-        <f t="shared" si="2"/>
-        <v>-1.9000000000000003E-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -2729,12 +2740,12 @@
         <v>23301</v>
       </c>
       <c r="M45" s="5">
-        <f>RATE(5,,-K44,K45)</f>
+        <f t="shared" si="1"/>
         <v>4.1857596222287533E-2</v>
       </c>
       <c r="N45" s="4">
-        <f t="shared" si="2"/>
-        <v>-1.4240377771247009E-4</v>
+        <f t="shared" si="0"/>
+        <v>0.99660943386398881</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -2775,12 +2786,12 @@
         <v>23715</v>
       </c>
       <c r="M46" s="5">
-        <f>RATE(6,,-K45,K46)</f>
+        <f t="shared" ref="M46" si="9">RATE(6,,-K45,K46)</f>
         <v>3.5121019645123243E-3</v>
       </c>
       <c r="N46" s="4">
-        <f t="shared" ref="N46:N57" si="3">M46-0.042</f>
-        <v>-3.8487898035487675E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.3621475345531521E-2</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -2818,12 +2829,11 @@
         <v>2562</v>
       </c>
       <c r="M47" s="5">
-        <f>RATE(4,,-108,K47)</f>
-        <v>-0.99999959914231695</v>
+        <v>0</v>
       </c>
       <c r="N47" s="4">
-        <f t="shared" si="3"/>
-        <v>-1.041999599142317</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
@@ -2864,12 +2874,12 @@
         <v>1524</v>
       </c>
       <c r="M48" s="5">
-        <f>RATE(5,,-2,K48)</f>
-        <v>1.5461076134379623</v>
+        <f>RATE(5,,-10,K48)</f>
+        <v>0.84536701975478634</v>
       </c>
       <c r="N48" s="4">
-        <f t="shared" si="3"/>
-        <v>1.5041076134379623</v>
+        <f t="shared" si="0"/>
+        <v>20.12778618463777</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
@@ -2910,12 +2920,12 @@
         <v>1524</v>
       </c>
       <c r="M49" s="5">
-        <f>RATE(6,,-K48,K49)</f>
+        <f t="shared" ref="M49" si="10">RATE(6,,-K48,K49)</f>
         <v>-0.18223654194311242</v>
       </c>
       <c r="N49" s="4">
-        <f t="shared" si="3"/>
-        <v>-0.22423654194311243</v>
+        <f t="shared" si="0"/>
+        <v>-4.3389652843598192</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
@@ -2956,12 +2966,11 @@
         <v>109071</v>
       </c>
       <c r="M50" s="5">
-        <f>RATE(4,,-30596,K50)</f>
-        <v>-6.7474753124623421E-2</v>
+        <v>0</v>
       </c>
       <c r="N50" s="4">
-        <f t="shared" si="3"/>
-        <v>-0.10947475312462343</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
@@ -3002,12 +3011,12 @@
         <v>107113</v>
       </c>
       <c r="M51" s="5">
-        <f>RATE(5,,-K50,K51)</f>
+        <f t="shared" si="1"/>
         <v>1.2905430855825401E-2</v>
       </c>
       <c r="N51" s="4">
-        <f t="shared" si="3"/>
-        <v>-2.9094569144174603E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.30727216323393808</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -3048,12 +3057,12 @@
         <v>110927</v>
       </c>
       <c r="M52" s="5">
-        <f>RATE(6,,-K51,K52)</f>
+        <f t="shared" si="2"/>
         <v>7.5317011355572434E-3</v>
       </c>
       <c r="N52" s="4">
-        <f t="shared" si="3"/>
-        <v>-3.4468298864442762E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.17932621751326769</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
@@ -3092,12 +3101,11 @@
         <v>7939</v>
       </c>
       <c r="M53" s="5">
-        <f>RATE(4,,-3865,K53)</f>
-        <v>-0.12982808054677811</v>
+        <v>0</v>
       </c>
       <c r="N53" s="4">
-        <f t="shared" si="3"/>
-        <v>-0.17182808054677812</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
@@ -3136,12 +3144,12 @@
         <v>7538</v>
       </c>
       <c r="M54" s="5">
-        <f>RATE(5,,-K53,K54)</f>
+        <f t="shared" si="1"/>
         <v>-0.25516720352799088</v>
       </c>
       <c r="N54" s="4">
-        <f t="shared" si="3"/>
-        <v>-0.29716720352799086</v>
+        <f t="shared" si="0"/>
+        <v>-6.0754096078093065</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
@@ -3182,12 +3190,12 @@
         <v>7538</v>
       </c>
       <c r="M55" s="5">
-        <f>RATE(6,,-K54,K55)</f>
+        <f t="shared" ref="M55" si="11">RATE(6,,-K54,K55)</f>
         <v>0.18978012927469051</v>
       </c>
       <c r="N55" s="4">
-        <f t="shared" si="3"/>
-        <v>0.1477801292746905</v>
+        <f t="shared" si="0"/>
+        <v>4.5185745065402498</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
@@ -3228,11 +3236,11 @@
         <v>29838</v>
       </c>
       <c r="M56" s="5">
-        <v>-0.22090000000000001</v>
+        <v>0</v>
       </c>
       <c r="N56" s="4">
-        <f t="shared" si="3"/>
-        <v>-0.26290000000000002</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
@@ -3273,12 +3281,12 @@
         <v>31878</v>
       </c>
       <c r="M57" s="5">
-        <f>RATE(5,,-K56,K57)</f>
+        <f t="shared" si="1"/>
         <v>2.0851259375352184E-2</v>
       </c>
       <c r="N57" s="4">
-        <f t="shared" si="3"/>
-        <v>-2.1148740624647819E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.49645855655600435</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
@@ -3319,12 +3327,12 @@
         <v>31884</v>
       </c>
       <c r="M58" s="5">
-        <f>RATE(6,,-K57,K58)</f>
+        <f t="shared" ref="M58" si="12">RATE(6,,-K57,K58)</f>
         <v>-6.1632826391178038E-3</v>
       </c>
       <c r="N58" s="4">
-        <f t="shared" ref="N58:N72" si="4">M58-0.042</f>
-        <v>-4.8163282639117809E-2</v>
+        <f t="shared" si="0"/>
+        <v>-0.14674482474090009</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
@@ -3365,12 +3373,11 @@
         <v>415906</v>
       </c>
       <c r="M59" s="5">
-        <f>RATE(4,,-13340,K59)</f>
-        <v>1.9882630690383457E-2</v>
+        <v>0</v>
       </c>
       <c r="N59" s="4">
-        <f t="shared" si="4"/>
-        <v>-2.2117369309616546E-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -3408,12 +3415,12 @@
         <v>334786</v>
       </c>
       <c r="M60" s="5">
-        <f>RATE(5,,-K59,K60)</f>
+        <f t="shared" si="1"/>
         <v>2.6818683602820442E-2</v>
       </c>
       <c r="N60" s="4">
-        <f t="shared" si="4"/>
-        <v>-1.518131639717956E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.63854008578143906</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
@@ -3454,12 +3461,12 @@
         <v>342725</v>
       </c>
       <c r="M61" s="5">
-        <f>RATE(6,,-K60,K61)</f>
+        <f t="shared" si="2"/>
         <v>2.9921345909919968E-2</v>
       </c>
       <c r="N61" s="4">
-        <f t="shared" si="4"/>
-        <v>-1.2078654090080035E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.71241299785523726</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
@@ -3500,12 +3507,11 @@
         <v>147349</v>
       </c>
       <c r="M62" s="5">
-        <f>RATE(4,,-9105,K62)</f>
-        <v>1.4403019290486607E-2</v>
+        <v>0</v>
       </c>
       <c r="N62" s="4">
-        <f t="shared" si="4"/>
-        <v>-2.7596980709513396E-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
@@ -3546,12 +3552,12 @@
         <v>146921</v>
       </c>
       <c r="M63" s="5">
-        <f>RATE(5,,-K62,K63)</f>
+        <f t="shared" si="1"/>
         <v>0.1039400109187207</v>
       </c>
       <c r="N63" s="4">
-        <f t="shared" si="4"/>
-        <v>6.1940010918720693E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.4747621647314451</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
@@ -3592,12 +3598,12 @@
         <v>146910</v>
       </c>
       <c r="M64" s="5">
-        <f>RATE(6,,-K63,K64)</f>
+        <f t="shared" ref="M64" si="13">RATE(6,,-K63,K64)</f>
         <v>7.7356485686881169E-3</v>
       </c>
       <c r="N64" s="4">
-        <f t="shared" si="4"/>
-        <v>-3.4264351431311887E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.1841821087782885</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
@@ -3638,11 +3644,11 @@
         <v>2683</v>
       </c>
       <c r="M65" s="5">
-        <v>-8.8400000000000006E-2</v>
+        <v>0</v>
       </c>
       <c r="N65" s="4">
-        <f t="shared" si="4"/>
-        <v>-0.13040000000000002</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
@@ -3680,12 +3686,12 @@
         <v>2683</v>
       </c>
       <c r="M66" s="5">
-        <f>RATE(5,,-K65,K66)</f>
+        <f t="shared" si="1"/>
         <v>-0.24652269408584893</v>
       </c>
       <c r="N66" s="4">
-        <f t="shared" si="4"/>
-        <v>-0.28852269408584891</v>
+        <f t="shared" si="0"/>
+        <v>-5.8695879544249738</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
@@ -3726,12 +3732,12 @@
         <v>2683</v>
       </c>
       <c r="M67" s="5">
-        <f>RATE(6,,-K66,K67)</f>
+        <f t="shared" ref="M67" si="14">RATE(6,,-K66,K67)</f>
         <v>8.1483747125568523E-2</v>
       </c>
       <c r="N67" s="4">
-        <f t="shared" si="4"/>
-        <v>3.948374712556852E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.9400892172754409</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
@@ -3772,11 +3778,11 @@
         <v>44067</v>
       </c>
       <c r="M68" s="5">
-        <v>-5.2999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="N68" s="4">
-        <f t="shared" si="4"/>
-        <v>-9.5000000000000001E-2</v>
+        <f t="shared" ref="N68:N88" si="15">M68/0.042</f>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -3814,12 +3820,12 @@
         <v>22968</v>
       </c>
       <c r="M69" s="5">
-        <f>RATE(5,,-K68,K69)</f>
+        <f t="shared" ref="M69:M87" si="16">RATE(5,,-K68,K69)</f>
         <v>-6.1508660048796064E-2</v>
       </c>
       <c r="N69" s="4">
-        <f t="shared" si="4"/>
-        <v>-0.10350866004879607</v>
+        <f t="shared" si="15"/>
+        <v>-1.4644919059237158</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
@@ -3860,12 +3866,12 @@
         <v>22968</v>
       </c>
       <c r="M70" s="5">
-        <f>RATE(6,,-K69,K70)</f>
+        <f t="shared" si="2"/>
         <v>-0.9999993377532328</v>
       </c>
       <c r="N70" s="4">
-        <f t="shared" si="4"/>
-        <v>-1.0419993377532328</v>
+        <f t="shared" si="15"/>
+        <v>-23.809508041743637</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
@@ -3906,8 +3912,8 @@
         <v>0</v>
       </c>
       <c r="N71" s="4">
-        <f t="shared" si="4"/>
-        <v>-4.2000000000000003E-2</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
@@ -3945,11 +3951,12 @@
         <v>1014</v>
       </c>
       <c r="M72" s="5">
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1.4500152604452551E-16</v>
       </c>
       <c r="N72" s="4">
-        <f t="shared" si="4"/>
-        <v>-4.2000000000000003E-2</v>
+        <f t="shared" si="15"/>
+        <v>3.4524172867744167E-15</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
@@ -3990,12 +3997,12 @@
         <v>1014</v>
       </c>
       <c r="M73" s="5">
-        <f>RATE(6,,-K72,K73)</f>
+        <f t="shared" ref="M73" si="17">RATE(6,,-K72,K73)</f>
         <v>0.17174729383438672</v>
       </c>
       <c r="N73" s="4">
-        <f t="shared" ref="N73:N78" si="5">M73-0.042</f>
-        <v>0.12974729383438671</v>
+        <f t="shared" si="15"/>
+        <v>4.0892212817711124</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
@@ -4036,12 +4043,11 @@
         <v>29356</v>
       </c>
       <c r="M74" s="5">
-        <f>RATE(4,,-11905,K74)</f>
-        <v>4.2674832292459108E-2</v>
+        <v>0</v>
       </c>
       <c r="N74" s="4">
-        <f t="shared" si="5"/>
-        <v>6.7483229245910575E-4</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
@@ -4082,12 +4088,12 @@
         <v>30455</v>
       </c>
       <c r="M75" s="5">
-        <f>RATE(5,,-K74,K75)</f>
+        <f t="shared" si="16"/>
         <v>4.8692234568169249E-2</v>
       </c>
       <c r="N75" s="4">
-        <f t="shared" si="5"/>
-        <v>6.6922345681692461E-3</v>
+        <f t="shared" si="15"/>
+        <v>1.159338918289744</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
@@ -4128,12 +4134,12 @@
         <v>30651</v>
       </c>
       <c r="M76" s="5">
-        <f>RATE(6,,-K75,K76)</f>
+        <f t="shared" ref="M76" si="18">RATE(6,,-K75,K76)</f>
         <v>2.136044884814035E-2</v>
       </c>
       <c r="N76" s="4">
-        <f t="shared" si="5"/>
-        <v>-2.0639551151859652E-2</v>
+        <f t="shared" si="15"/>
+        <v>0.50858211543191312</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
@@ -4171,11 +4177,11 @@
         <v>456555</v>
       </c>
       <c r="M77" s="5">
-        <v>4.58E-2</v>
+        <v>0</v>
       </c>
       <c r="N77" s="4">
-        <f t="shared" si="5"/>
-        <v>3.7999999999999978E-3</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -4216,12 +4222,12 @@
         <v>390366</v>
       </c>
       <c r="M78" s="5">
-        <f>RATE(5,,-K77,K78)</f>
+        <f t="shared" si="16"/>
         <v>4.5102090514310085E-2</v>
       </c>
       <c r="N78" s="4">
-        <f t="shared" si="5"/>
-        <v>3.1020905143100824E-3</v>
+        <f t="shared" si="15"/>
+        <v>1.0738592979597639</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
@@ -4262,12 +4268,12 @@
         <v>387538</v>
       </c>
       <c r="M79" s="5">
-        <f>RATE(6,,-K78,K79)</f>
+        <f t="shared" si="2"/>
         <v>-0.11973381727180475</v>
       </c>
       <c r="N79" s="4">
-        <f t="shared" ref="N79:N85" si="6">M79-0.042</f>
-        <v>-0.16173381727180475</v>
+        <f t="shared" si="15"/>
+        <v>-2.850805173138208</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
@@ -4308,12 +4314,11 @@
         <v>11313</v>
       </c>
       <c r="M80" s="5">
-        <f>RATE(4,,-2442,K80)</f>
-        <v>-4.117133681642815E-2</v>
+        <v>0</v>
       </c>
       <c r="N80" s="4">
-        <f t="shared" si="6"/>
-        <v>-8.317133681642816E-2</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
@@ -4354,12 +4359,12 @@
         <v>15148</v>
       </c>
       <c r="M81" s="5">
-        <f>RATE(5,,-K80,K81)</f>
+        <f t="shared" si="16"/>
         <v>0.15929780590939824</v>
       </c>
       <c r="N81" s="4">
-        <f t="shared" si="6"/>
-        <v>0.11729780590939823</v>
+        <f t="shared" si="15"/>
+        <v>3.7928049026047197</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
@@ -4400,12 +4405,12 @@
         <v>15160</v>
       </c>
       <c r="M82" s="5">
-        <f>RATE(6,,-K81,K82)</f>
+        <f t="shared" ref="M82" si="19">RATE(6,,-K81,K82)</f>
         <v>4.2936108059009791E-2</v>
       </c>
       <c r="N82" s="4">
-        <f t="shared" si="6"/>
-        <v>9.3610805900978811E-4</v>
+        <f t="shared" si="15"/>
+        <v>1.0222882871192807</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
@@ -4446,11 +4451,11 @@
         <v>201246</v>
       </c>
       <c r="M83" s="5">
-        <v>-1.7299999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="N83" s="4">
-        <f t="shared" si="6"/>
-        <v>-5.9300000000000005E-2</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
@@ -4491,12 +4496,12 @@
         <v>201247</v>
       </c>
       <c r="M84" s="5">
-        <f>RATE(5,,-K83,K84)</f>
+        <f t="shared" si="16"/>
         <v>2.9992825614157382E-2</v>
       </c>
       <c r="N84" s="4">
-        <f t="shared" si="6"/>
-        <v>-1.2007174385842621E-2</v>
+        <f t="shared" si="15"/>
+        <v>0.71411489557517571</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
@@ -4537,12 +4542,12 @@
         <v>201246</v>
       </c>
       <c r="M85" s="5">
-        <f>RATE(6,,-K84,K85)</f>
+        <f t="shared" ref="M85" si="20">RATE(6,,-K84,K85)</f>
         <v>-9.3809584139256316E-2</v>
       </c>
       <c r="N85" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.13580958413925631</v>
+        <f t="shared" si="15"/>
+        <v>-2.2335615271251501</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
@@ -4583,11 +4588,11 @@
         <v>113602</v>
       </c>
       <c r="M86" s="5">
-        <f>RATE(4,,-81289,K86)</f>
-        <v>2.1746438015258603E-2</v>
+        <v>0</v>
       </c>
       <c r="N86" s="4">
-        <v>2.0253561984741399E-2</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
@@ -4628,11 +4633,12 @@
         <v>76931</v>
       </c>
       <c r="M87" s="5">
-        <f>RATE(5,,-K86,K87)</f>
+        <f t="shared" si="16"/>
         <v>6.3636232812021463E-3</v>
       </c>
       <c r="N87" s="4">
-        <v>3.5636376718797859E-2</v>
+        <f t="shared" si="15"/>
+        <v>0.15151484002862253</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
@@ -4673,18 +4679,21 @@
         <v>76930</v>
       </c>
       <c r="M88" s="5">
-        <f>RATE(6,,-K87,K88)</f>
+        <f t="shared" ref="M88" si="21">RATE(6,,-K87,K88)</f>
         <v>-3.2663600563718795E-2</v>
       </c>
       <c r="N88" s="4">
-        <v>7.4663600563718791E-2</v>
+        <f t="shared" si="15"/>
+        <v>-0.77770477532663795</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AW443">
-    <sortCondition ref="C2:C443"/>
-    <sortCondition ref="F2:F443"/>
+  <sortState ref="A2:N88">
+    <sortCondition ref="C2:C88"/>
+    <sortCondition ref="F2:F88"/>
   </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>